--- a/biology/Botanique/Gestion_différenciée/Gestion_différenciée.xlsx
+++ b/biology/Botanique/Gestion_différenciée/Gestion_différenciée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gestion_diff%C3%A9renci%C3%A9e</t>
+          <t>Gestion_différenciée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gestion différenciée (parfois qualifiée de gestion harmonique, gestion raisonnée durable, gestion évolutive durable, et même de gestion raisonnable[1]en Isère) est une façon de gérer les espaces verts en milieu urbain qui consiste appliquer à « chaque élément du patrimoine (foncier et végétal) un traitement spécifique, avec des niveaux de prestation variables selon la catégorie dont il relève (parc ou jardin), sa fonction culturelle, sociale et biologique, son rôle dans le tissu urbain et la relation qu'on souhaite créer avec le végétal »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gestion différenciée (parfois qualifiée de gestion harmonique, gestion raisonnée durable, gestion évolutive durable, et même de gestion raisonnableen Isère) est une façon de gérer les espaces verts en milieu urbain qui consiste appliquer à « chaque élément du patrimoine (foncier et végétal) un traitement spécifique, avec des niveaux de prestation variables selon la catégorie dont il relève (parc ou jardin), sa fonction culturelle, sociale et biologique, son rôle dans le tissu urbain et la relation qu'on souhaite créer avec le végétal ».
 Selon cette approche qui s'inspire de techniques agricoles traditionnelles ou de gestions douces comme Prosilva, il est inutile par exemple, voire écologiquement non pertinent de tondre systématiquement et souvent toutes les surfaces enherbées, ce qui conduit à n'obtenir qu'un même milieu (pelouse rase), presque monospécifique, c'est-à-dire banal et très appauvri en biodiversité, ne développant que peu de services écologiques, peu utile pour la faune, hormis pour quelques espèces invasives ou ubiquistes (comme l'étourneau).
 La gestion différenciée, dans ce cas proposera que certains espaces moins fréquentés, aux sols plus fragiles, ou écologiquement précieux soient laissés à eux-mêmes, fauchés ou extensivement pâturés, éventuellement même une fois tous les deux ans sur certaines parties afin d'y conserver des refuges pour la biodiversité et une plus grande diversité de paysages, alors que d'autres seront intensivement tondus en raison de leurs fonctions ; l'exemple extrême étant celui du terrain de football destiné aux compétitions homologuées.
 Cette logique s'accompagne souvent d'une augmentation du taux de végétalisation, de la surface boisée et d'une réduction (ou suppression) de l'usage des pesticides et désherbants et de l'exportation des produits de fauche et de taille (vers unité de compostage, horticulture, agriculture..) ou de leur utilisation locale (mulch, bois raméal fragmenté, compostage sur place, etc.)
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gestion_diff%C3%A9renci%C3%A9e</t>
+          <t>Gestion_différenciée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Les objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les objectifs sont multiples :
 rationaliser la gestion des espaces verts en y affectant les ressources nécessaires ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gestion_diff%C3%A9renci%C3%A9e</t>
+          <t>Gestion_différenciée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tout aménagement urbain ou périurbain artificiel appelle un suivi pour sa pérennité. La végétation évoluant constamment et naturellement vers un stade climacique théorique ou en réponse aux contraintes locales (y compris de pollution, de surfréquentation, etc.), le contrôle de son développement est nécessaire ; de plus, les gestionnaires cherchent à maintenir ou améliorer la valeur esthétique de l’espace et à répondre à une demande croissante de naturalité, mais aussi d'accessibilité.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout aménagement urbain ou périurbain artificiel appelle un suivi pour sa pérennité. La végétation évoluant constamment et naturellement vers un stade climacique théorique ou en réponse aux contraintes locales (y compris de pollution, de surfréquentation, etc.), le contrôle de son développement est nécessaire ; de plus, les gestionnaires cherchent à maintenir ou améliorer la valeur esthétique de l’espace et à répondre à une demande croissante de naturalité, mais aussi d'accessibilité.
 Pour répondre à ces objectifs parfois contradictoires, un plan de gestion différentiée peut émerger d’une réflexion sur les fonctions des espaces verts ou semi-naturels et les scenarios d’entretien futur. 
 Ce nouveau mode de gestion - gestion différenciée - apparu dans les années 1990, se veut une gestion plus écologique et alternative à la gestion horticole intensive, banalisée et banalisante. Il intègre des éléments de défense et restauration de l'Environnement et implique une autre technicité, ainsi que la diversité des réponses de gestion afin de respecter les différents milieux et besoins de la flore, des usages dans les espaces publics végétalisés, tout en conservant un souci de l’esthétique des formes et successions végétales. 
 Sont concernés à une échelle quotidienne la gestion des ressources, la limitation des pollutions induites, les recyclages puis, du point de vue de la biodiversité, la reconnaissance et l'expression des potentiels écologiques, la prise en compte d’éléments de flore et de faune sauvages et/ou spontanés, la revalorisation d’espaces et de milieux jusqu’à présent délaissés, voire pollués. 
@@ -565,9 +581,47 @@
 À titre d’exemple, on peut retenir que la paysagiste Beth Chatto a réalisé un jardin à White Barn House (Essex), incluant divers types d’habitats, sans aucun arrosage. Situé sur un terrain en friche doté d’une source, ce jardin a immédiatement séduit la créatrice, qui a conservé la plupart des arbres en place et en a ajouté d’autres pour protéger l’ensemble des vents violents. Elle planta peu à peu des espèces appropriées au site, les associant d'une façon écologique. 
 Depuis les années 1970, la notion de « jardinage écologique » a évolué, passant de l’utilisation de plantes indigènes à l’association de végétaux provenant de diverses régions, mais partageant des besoins identiques.
 C’est ainsi que vers la fin du vingtième siècle, une nouvelle approche du paysagisme est arrivée à maturité. Elle résulte en fait d’une évolution, ininterrompue, qui relie quelques grands paysagistes de l’époque et aboutit à des expérimentations durables à l’université de Weihenstephan (Allemagne), sur les plantes herbacées et vivaces. Ces personnalités s’intéressèrent au développement d’un habitat favorable aux plantes et, plus récemment, à leur autonomie. Cette idée fut surtout appliquée aux vivaces que l’on évitait souvent, surtout dans la seconde moitié du vingtième siècle, lorsque l’entretien devint une question centrale dans les jardins publics et privés.
-Méthodes alternatives aux produits phytosanitaires
-Les mots de la lutte biologique
-La définition officielle (de l'OILB-SROP) stipule que la lutte biologique est « l'utilisation d'organismes vivants pour prévenir ou réduire les dégâts causés par des ravageurs ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Introduction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Méthodes alternatives aux produits phytosanitaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les mots de la lutte biologique</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La définition officielle (de l'OILB-SROP) stipule que la lutte biologique est « l'utilisation d'organismes vivants pour prévenir ou réduire les dégâts causés par des ravageurs ».
 Le principe est simple :
 La lutte biologique est basée sur l'exploitation par l'Homme et à son profit d'une relation naturelle entre deux êtres vivants :
 la cible (de la lutte) est un organisme indésirable, ravageur d'une plante cultivée, mauvaise herbe, parasite du bétail… ;
@@ -582,16 +636,88 @@
 Aux frontières de la lutte biologique : la lutte autocide (encore dénommée lutte par mâles stériles).
 Elle a pour principe l'introduction en grand nombre dans une population naturelle d'individus mâles modifiés (rendus stériles par l'application de rayonnements ionisants) mais au comportement sexuel intact. Ces mâles manipulés seront, une fois lâchés, en compétition avec les mâles sauvages. S’ils sont (par exemple) 9 fois plus nombreux que leurs congénères « naturels », et si les femelles n'acceptent qu'un accouplement, 9 femelles sur 10 n'auront pas de descendance. Au bout de peu de générations, l'apport de mâles stériles continuant, la population cible est anéantie.
 La lutte autocide repose sur un principe très astucieux mais son emploi semble restreint à quelques très rares cas bien adaptés. 
-Au-delà de la lutte biologique… On travaille actuellement à mettre au point l'utilisation des toxines des Champignons et des Bactéries entomopathogènes, soit en tant que matière active phytopharmaceutique à ranger à côté des insecticides classiques, soit en tant que substances qu'on fait fabriquer par la plante génétiquement modifiée (un maïs transgénique résistant à la Pyrale du maïs est en principe disponible).
-Protection raisonnée des cultures
-Respectueuses de l’environnement, elle passe par l'introduction d’auxiliaires, l'emploi de la microbiologie, ou des méthodes mécaniques ou thermiques.
+Au-delà de la lutte biologique… On travaille actuellement à mettre au point l'utilisation des toxines des Champignons et des Bactéries entomopathogènes, soit en tant que matière active phytopharmaceutique à ranger à côté des insecticides classiques, soit en tant que substances qu'on fait fabriquer par la plante génétiquement modifiée (un maïs transgénique résistant à la Pyrale du maïs est en principe disponible).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Introduction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Méthodes alternatives aux produits phytosanitaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Protection raisonnée des cultures</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Respectueuses de l’environnement, elle passe par l'introduction d’auxiliaires, l'emploi de la microbiologie, ou des méthodes mécaniques ou thermiques.
 Les moyens dits mécaniques ou thermiques peuvent être employés contre les adventices (dites mauvaises herbes), ou contre certains prédateurs des plantes, ou organismes indésirables du sol. 
 Le binage consiste à ameublir la terre autour de plante cultivée par l'action d'un outil manuel (la binette) ou mécanique (la bineuse mécanique). Il permet, entre autres, de déraciner les mauvaises herbes.
 Le désherbage thermique consiste à brûler les mauvaises herbes grâce à une machine conçue à cet effet.
 La solarisation est une technique de désherbage des sols au moyen de la chaleur du soleil.
-La désinfection des sols à la vapeur, utilisée en culture sous serres ou dans certains élevages pour détruire les germes, dont les pathogènes présents dans le sol.
-Protection des espaces sensibles au feu
-Les feux de forêt présentent un risque grandissant dans les régions chaudes et sèches et parfois dans les zones tempérées. Les explications souvent produites sont  :
+La désinfection des sols à la vapeur, utilisée en culture sous serres ou dans certains élevages pour détruire les germes, dont les pathogènes présents dans le sol.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Introduction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection des espaces sensibles au feu</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les feux de forêt présentent un risque grandissant dans les régions chaudes et sèches et parfois dans les zones tempérées. Les explications souvent produites sont  :
 une déprise agricole entraînant une diminution de l'entretien régulier des zones naturelles sensibles au feu ;
 un mitage du paysage avec implantation en forêt sèche de nouveaux habitants ignorant les risques liés au feu. Cette inexpérience débouchant sur des imprudences, souvent source de départ de feu ;
 une spéculation sur le développement touristique, des enjeux financiers considérables expliquant certaines mises à feu volontaires ;
@@ -609,40 +735,86 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gestion_diff%C3%A9renci%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Gestion différenciée par type d’espace</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entretien des espaces d’accompagnement
-Gestion des zones arbustives
-Protection contre les animaux : dans les secteurs particulièrement exposés, le gibier peut provoquer des dégâts irréversibles, notamment au niveau des écorces, sur les jeunes plantations. Dans ce cas, il est indispensable de placer des filets de protection autour des arbustes, avec un léger buttage pour éviter les passages au-dessous. Trois tuteurs en bambous sont enfoncés de 30 cm dans le sol et maintiennent un manchon de filet polyéthylène (60 cm de haut).
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Entretien des espaces d’accompagnement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Gestion des zones arbustives</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Protection contre les animaux : dans les secteurs particulièrement exposés, le gibier peut provoquer des dégâts irréversibles, notamment au niveau des écorces, sur les jeunes plantations. Dans ce cas, il est indispensable de placer des filets de protection autour des arbustes, avec un léger buttage pour éviter les passages au-dessous. Trois tuteurs en bambous sont enfoncés de 30 cm dans le sol et maintiennent un manchon de filet polyéthylène (60 cm de haut).
 Arrosage : dans les parties dépourvues de système d’irrigation, il sera nécessaire de prévoir un arrosage des jeunes arbustes à l’aide, par exemple, d’une citerne.
 Taille des arbustes à fleurs : consiste à supprimer les rameaux ayant fleuri pour obtenir de nouvelles branches bien florifères. (Périodes d’intervention : immédiatement après la floraison pour les arbustes à floraison printanière, pendant tout le repos de la végétation pour les arbustes à floraison estivale).
-Taille des haies : consiste à conserver les formes et les volumes des haies régulières. La période la mieux adaptée est fonction de la pousse et de la résistance au gel des jeunes pousses.
-Gestion des bords de route
-Le réseau routier s’est considérablement transformé ces dernières décennies. Avec l’augmentation du trafic, l’emprise routière s’est élargie. Le bord des routes était fauché manuellement par les cantonniers autrefois mais aujourd’hui cela nécessite un matériel performant. Face à des tâches d’entretien de plus en plus lourdes, les responsables du domaine routier se tournent vers une gestion plus écologique[3]. Elle consiste à reconstituer les structures végétales favorisant un équilibre biologique. Ces dernières créent un espace naturel et d’entretien plus facile.
+Taille des haies : consiste à conserver les formes et les volumes des haies régulières. La période la mieux adaptée est fonction de la pousse et de la résistance au gel des jeunes pousses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Gestion différenciée par type d’espace</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Entretien des espaces d’accompagnement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Gestion des bords de route</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le réseau routier s’est considérablement transformé ces dernières décennies. Avec l’augmentation du trafic, l’emprise routière s’est élargie. Le bord des routes était fauché manuellement par les cantonniers autrefois mais aujourd’hui cela nécessite un matériel performant. Face à des tâches d’entretien de plus en plus lourdes, les responsables du domaine routier se tournent vers une gestion plus écologique. Elle consiste à reconstituer les structures végétales favorisant un équilibre biologique. Ces dernières créent un espace naturel et d’entretien plus facile.
 Intégration paysagère : généralement, les travaux d’infrastructure modifient profondément le sol. Il est donc important pour en faciliter la gestion :
 de favoriser l’intégration de l’ouvrage par le choix d’essences locales hétérogènes,
 d’utiliser des espèces d’installation plus facile adaptées au sol et au climat,
@@ -651,9 +823,43 @@
 assurer l’équilibre et la stabilité des biotopes ;
 maintenir le recyclage des éléments de base par le respect des surfaces minimales indispensables à l’autonomie du système biologique ;
 maîtriser l’évolution naturelle tout en conservant des réseaux de corridors biologiques et de zones-refuges, y compris pour les espèces caulicoles de la strate herbacée, qui ne supportent pas la fauche ;
-choisir le matériel le moins traumatisant pour la végétation et la faune qui s’y réfugie.
-Gestion des zones prairiales
-Il existe deux grands types de zones prairiales : les prairies humides et les prairies sèches.
+choisir le matériel le moins traumatisant pour la végétation et la faune qui s’y réfugie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Gestion différenciée par type d’espace</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gestion des zones prairiales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe deux grands types de zones prairiales : les prairies humides et les prairies sèches.
 Les prairies humides sont des écosystèmes naturels et quasi-naturels dont la végétation est caractérisée et dominée par des graminées, des laîches, des roseaux, des joncs et des herbes pérennes basses. Elles abritent une faune et une flore sauvages ainsi qu’une diversité biologique spécifiques, comprenant des espèces et communautés de plantes et d’animaux rares et menacés, y compris des populations d’oiseaux importantes au niveau international, une diversité de mammifères, invertébrés, reptiles et amphibiens. Elles sont périodiquement inondées ou saturées d’eau et entretenues par la coupe, le brûlage, le pâturage (naturel ou induit par l’Homme), ou encore par un assortiment de ces facteurs.
 Les prairies sèches offrent des habitats à de multiples espèces animales et végétales, mais tendent à se raréfier, comme on peut le voir avec l’exemple de la Suisse. C’est pourquoi l’Office Fédéral de l’Environnement, des Forêts et du Paysage (OFEFP) de cet état dresse actuellement l’inventaire des prairies et pâturages secs d’importance nationale. À la fin de l’an 2000, les collaborateurs de bureaux d’écologie privés achevaient ce bilan dans la moitié des cantons. Afin de déterminer quelles sont les zones à protéger en priorité, une méthode d’appréciation et de classification a été mise en place. Chaque prairie est évaluée en fonction de sa qualité ; cette valeur repose sur six critères : végétation, superficie, éléments structurels importants pour les animaux, présence possible d’espèces végétales rares, diversité de la végétation, et réseaux écologiques comprenant des corridors situés à l’extérieur de la prairie.
 La flore qui recouvre les zones enherbées se compose de plantes annuelles, vivaces et quelquefois semi-ligneuses. Les graminées sont les plus nombreuses dans les pelouses et les prairies ; pour les plus soignées, elles constituent même la seule végétation. Il est donc très important de connaître leur cycle végétatif afin de déterminer les périodes d’intervention humaine. Connaissant ce cycle, on comprend donc que la période intense d’intervention se situe entre la « montée de l’épi » et la « fructification », que les interventions volontairement limitées débuteront à la « montée de l’épi », et que le fauchage, réduit à une intervention annuelle, doit naturellement avoir lieu à la « montée de l’épi ».
@@ -662,8 +868,43 @@
 la barre de coupe sur motoculteur (pour des surfaces plus réduites avec peu d’obstacles et éventuellement en pente, mais une coupe de qualité)
 la motofaucheuse (pour de grandes surfaces et une coupe sans finition).
 Afin de réduire les interventions sur ces zones, il est également important de choisir des essences adaptées aux qualités naturelles du site et du sol, afin de limiter l’arrosage (qui devra être calculé en fonction des précipitations naturelles et de l’évapotranspiration du sol), la fertilisation et les traitements phytosanitaires. Quant au désherbage, il pourra être considérablement réduit par le choix d’espèces à forte combativité, qui ne laisseront pas une grande place aux adventices.
-Gestion des plans d’eau et de leurs abords
-Un plan d’eau est un élément vivant tout comme les parties végétalisées, et à ce titre il doit recevoir une surveillance et un entretien réguliers. Dans l’écosystème aquatique, chacun des éléments de la chaîne trophique doit garder sa place et se développer normalement, sous peine de voir cet ensemble se modifier rapidement et mourir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Gestion différenciée par type d’espace</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Gestion des plans d’eau et de leurs abords</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un plan d’eau est un élément vivant tout comme les parties végétalisées, et à ce titre il doit recevoir une surveillance et un entretien réguliers. Dans l’écosystème aquatique, chacun des éléments de la chaîne trophique doit garder sa place et se développer normalement, sous peine de voir cet ensemble se modifier rapidement et mourir.
 Il existe six contrôles différents permettant d’assurer la préservation de ces milieux :
 les contrôles en amont permettent de protéger les zones inondables (ce qui contribue à la qualité de l’eau), de vérifier les rejets d’eaux usées (assainissements, industries…) et d’avoir une action sur les méthodes culturales (pas d’excès de nitrates) ;
 le contrôle de la luminosité vise à limiter le développement de la voûte végétale pour favoriser l’action de la lumière sur la végétation immergée (photosynthèse = oxygénation de l’eau), et limiter les végétaux et matières en suspension (l’excès de nitrates favorisant les végétaux flottants) ;
@@ -676,34 +917,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gestion_diff%C3%A9renci%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Application de la gestion différenciée à certains parcs et par certaines collectivités locales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Plaisance (Oise)
-La Communauté de Communes de la Région de Compiègne (CCRC) envisage de créer une zone d’activité économique sur le site du Bois de Plaisance, localisé sur la commune de Venette. Le projet a été conçu avec une volonté forte de prise en compte de l’environnement. Entrant dans une phase plus détaillée de conception, la CCRC, chargée de la maîtrise d’œuvre, souhaite renforcer la qualité environnementale du projet, aussi bien dans la phase de conception que dans une approche à long terme. Dans ce cadre elle lance une consultation en vue d’associer à ses services techniques une équipe d’ingénierie compétente dans le domaine de l’environnement, de l’aménagement et du développement durable.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Le bois de Plaisance (Oise)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Communauté de Communes de la Région de Compiègne (CCRC) envisage de créer une zone d’activité économique sur le site du Bois de Plaisance, localisé sur la commune de Venette. Le projet a été conçu avec une volonté forte de prise en compte de l’environnement. Entrant dans une phase plus détaillée de conception, la CCRC, chargée de la maîtrise d’œuvre, souhaite renforcer la qualité environnementale du projet, aussi bien dans la phase de conception que dans une approche à long terme. Dans ce cadre elle lance une consultation en vue d’associer à ses services techniques une équipe d’ingénierie compétente dans le domaine de l’environnement, de l’aménagement et du développement durable.
 Les prestations relevant de cette mission se décomposent en trois phases : approfondissement des objectifs environnementaux du projet ; accompagnement des concepteurs chargés de la maîtrise d’œuvre ; réflexion sur les dispositifs et outils de gestion durable de l’environnement du site.
 Afin de préserver le site, à travers son aménagement, des pollutions extérieures, différentes solutions ont été proposées :
 les partenaires du groupement examineront les matériaux et matériels envisagés afin d’en faire l’analyse critique au regard du développement durable, et en particulier leur capacité de longévité, d’être non polluants à terme et recyclables
@@ -711,22 +957,126 @@
 les membres du groupement se rendront disponibles afin de participer aux réunions de chantier, afin de donner un avis sur les aspects environnementaux, paysagers et qualitatifs du chantier (seront vérifiées la protection des eaux superficielles ou souterraines, la récupération des produits polluants tels que les hydrocarbures et produits toxiques, la formation de poussières, la circulation engendrée par la construction, les nuisances sonores…).
 Par la suite, afin de pérenniser l’aspect qualitatif du parc d’activités, il est prévu de développer une Charte Environnementale.
 Voir Annexe.
-Le parc du chemin de l’île (Hauts-de-Seine)
-Le parc du Chemin de l'île est un nouvel espace de détente et de loisirs qui se substitue à une friche industrielle. La mise en scène du lieu mêle tout à la fois, grands espaces libres, aires de jeux, lieux de promenade. Ce parc sera ouvert au public dès 2006.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Application de la gestion différenciée à certains parcs et par certaines collectivités locales</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Le parc du chemin de l’île (Hauts-de-Seine)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le parc du Chemin de l'île est un nouvel espace de détente et de loisirs qui se substitue à une friche industrielle. La mise en scène du lieu mêle tout à la fois, grands espaces libres, aires de jeux, lieux de promenade. Ce parc sera ouvert au public dès 2006.
 Réconcilier ville et nature : l'aménagement de ce lieu, étiré entre des franges disparates, violemment marqué par la présence de routes et de viaducs, de pylônes, de souffleries qui dispersent de l'air vicié, ne peut se résumer à un simple maquillage. Pour l'atelier Acanthe, le futur parc des bords de Seine doit être un lieu de vie, le cœur d'une alliance entre la ville et la nature. Un véritable système biologique et non une verdure récréative. En prenant la nature pour alliée, l'atelier se saisit de ses éléments : l'eau, l'air, la terre… Le parc s'ouvre sur le fleuve et crée un espace de respiration par la présence d'une vaste plaine.
 Un parc intégré dans une démarche de développement durable : le projet vise en outre à développer une nature ordinaire mais variée. Ainsi, aux côtés des zones horticoles ou gazonnées, le parc s'ouvre sur des prairies fleuries, des mares, des arbres isolés, des haies, des petits bois aux rôles écologiques différents. La dimension de développement durable est vraiment partie intégrante du projet : prise en compte de la biodiversité, traitement de l'air, utilisation de l'énergie solaire, traitement et gestion rationnelle de l'eau, gestion de la biomasse grâce à son traitement sur place en cycle fermé, réduction des nuisances sonores. Même orientation pour les berges. Leur valeur écologique sera augmentée par différents aménagements : des graviers pour la ponte des poissons, des vasières pour les insectes et les batraciens. Le dispositif de ce secteur comprend un gabion immergé, la création d'une zone de littoral peu profonde plantée de végétations aquatiques et de substrats variés. Ce futur parc de 14,5 hectares est aménagé en bord de Seine sur une ancienne friche industrielle. Le chantier est conduit selon les critères d’exigence de HQE : haute qualité environnementale.
 L’exemplarité écologique au service de l’urbanisme : sur le chantier, le recyclage des matériaux est systématiquement privilégié afin de limiter la production de déchets ainsi que le transport et la circulation des engins de chantier. Les matériaux utilisés ont été choisis pour leur neutralité sur le milieu. L’imperméabilisation des bassins et contre-fossés est assurée à 80 % par l’utilisation de gisements d’argiles présents sur le terrain. Les matériaux de démolition des bâtiments sont concassés sur place et réutilisés pour les fondations des allées. Quant aux arbres et autres végétaux supprimés, ils sont broyés et transformés en mulch qui sera utilisé comme engrais naturel au moment des plantations. L’implantation de jardins filtrants permettra de gérer l’eau de manière rationnelle. Ces jardins purifient naturellement l’eau pompée dans la Seine, qui sert ensuite à l’arrosage du parc et des jardins familiaux, ou retourne épurée dans le fleuve, favorisant ainsi la constitution de frayères (lieu où les poissons fraient).
 Quatre bâtiments vont voir le jour : le pavillon des berges (restauration), le pavillon de la garde équestre (écuries), la maison de parc (expositions/informations/orientation du public) et des locaux administratifs. Leur construction atteint 6 objectifs de la HQE : elle se distingue particulièrement par les matériaux employés (bois, métal et couverture en zinc) et par leur modularité.
-L’épanouissement d’une biodiversité : fondé sur la préservation durable des ressources et de l’environnement, ce parc restaure un véritable écosystème dans lequel faune et flore s’enrichissent mutuellement. Situé en face du futur parc, l’île Fleurie, un site protégé, constitue un refuge pour l’avifaune et de nombreux animaux. Ce réservoir naturel a favorisé le maintien d’une biodiversité sur les rives de Nanterre, où subsistent encore des espèces peu courantes de plantes et d’insectes. Ce capital sera préservé et développé par des aménagements de type « génie écologique » qui restaurent des « mini-écosystèmes » : mise en place de frayères et de sols de graviers pour la ponte des poissons, création de vasières pour divers insectes et batraciens, contre-fossé en mare naturelle pour permettre l’installation d’une végétation aquatique, etc.
-Le parc de l’île Saint-Germain (Hauts-de-Seine)
-Depuis plus de vingt ans, le parc départemental de l’île Saint-Germain abrite des jardins variés et inattendus où poésie végétale, patrimoines naturel et historique s’entremêlent harmonieusement. Plus encore aujourd’hui, il offre la vision d’une nature à la reconquête de son territoire où tout conduit à l’épanouissement d’une flore et d’une faune libres des contraintes urbaines pourtant si proches. 
+L’épanouissement d’une biodiversité : fondé sur la préservation durable des ressources et de l’environnement, ce parc restaure un véritable écosystème dans lequel faune et flore s’enrichissent mutuellement. Situé en face du futur parc, l’île Fleurie, un site protégé, constitue un refuge pour l’avifaune et de nombreux animaux. Ce réservoir naturel a favorisé le maintien d’une biodiversité sur les rives de Nanterre, où subsistent encore des espèces peu courantes de plantes et d’insectes. Ce capital sera préservé et développé par des aménagements de type « génie écologique » qui restaurent des « mini-écosystèmes » : mise en place de frayères et de sols de graviers pour la ponte des poissons, création de vasières pour divers insectes et batraciens, contre-fossé en mare naturelle pour permettre l’installation d’une végétation aquatique, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Application de la gestion différenciée à certains parcs et par certaines collectivités locales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Le parc de l’île Saint-Germain (Hauts-de-Seine)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis plus de vingt ans, le parc départemental de l’île Saint-Germain abrite des jardins variés et inattendus où poésie végétale, patrimoines naturel et historique s’entremêlent harmonieusement. Plus encore aujourd’hui, il offre la vision d’une nature à la reconquête de son territoire où tout conduit à l’épanouissement d’une flore et d’une faune libres des contraintes urbaines pourtant si proches. 
 À la base ancienne friche militaire, ce parc a été réaménagé dans les années 1990, au moment de la prise de conscience d’un environnement à préserver. Cette nouvelle politique s’est traduite, sur l’île Saint-Germain, par la mise en place de nouveaux outils. Cette démarche est également passée par l’inventaire et l’étude des arbres et plantes spontanés qui paraissaient pourtant dépourvus d’intérêt. Une végétation digne d’être prise en compte, valorisée et développée a ainsi pu être répertoriée.
 La mise en valeur de cette friche militaire est passé par un projet de préverdissement. Le projet paysager proposé en 1995 par Yves Deshayes s’inscrit alors dans les nouvelles orientations environnementales du Conseil général qui prône la création de nouveaux parcs valorisant la flore et la faune spontanées. Le paysagiste, profitant des valeurs du patrimoine végétal présent sur l’île, invente alors le concept des « jardins imprévus » dont les principes sont de préserver la flore spontanée en place et de favoriser son épanouissement par l’application d’une gestion plus respectueuse de l’environnement selon les pratiques de la gestion différenciée.
 À l’île Saint-Germain, les aménagements, créés autour d’espaces clos ou ouverts, s’appuient sur le développement de la végétation existante, valorisent l’apparition d’espèces végétales spontanées et encouragent la colonisation d’une faune très diversifiée sur les berges et dans les espaces isolés.
 Ce retour à la nature, passant par la valorisation de la friche, n’est pas sans rappeler le concept du « jardin en mouvement » du paysagiste contemporain Gilles Clément, pratique où le jardinier ne contrarie plus le mouvement naturel des plantes vagabondes, mais au contraire l’épouse. Plus encore, les jardiniers de l’île Saint-Germain poussent les limites de ces expériences et font des « jardins imprévus » un projet singulier où, au-delà de la mouvance de la gestion différenciée, le jardin est au plus près de la nature, évolutif et durable. Car si la valeur esthétique du jardin, de sa composition, de sa structure interne a une importance incontestable, le travail de création est d’abord considéré dans un respect obstiné des écosystèmes où le jardinier est amené à intervenir avec parcimonie. Ce dernier doit renoncer à l’emploi des engrais, à l’application de divers produits chimiques et aux techniques d’arrosage traditionnelles.
 Le génie écologique permet de modifier le milieu tout en lui conservant un aspect naturel : la réalisation d’une mare ou la restauration de milieux humides peut contribuer à mieux gérer l'eau, tout en restaurant la biodiversité. Semer des plantes messicoles (plantes des « moissons) « ressuscite » les bleuets et coquelicots disparus de nos paysages.
-De nombreux autres exemples significatifs
-En région Nord-Pas-de-Calais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gestion_différenciée</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gestion_diff%C3%A9renci%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Application de la gestion différenciée à certains parcs et par certaines collectivités locales</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>De nombreux autres exemples significatifs</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En région Nord-Pas-de-Calais
 - La ville de Grande-Synthe (Nord)
 - La ville de Lille (Nord)
 - La ville de Villeneuve-d'Ascq (Nord) et le campus de l'université de Lille 1
@@ -736,7 +1086,7 @@
 - La commune de Bergues (Nord)
 - Le Parc Paysager d'Activités de Landacres à Boulogne-sur-Mer (Pas-de-Calais)
 - Le Parc des industries Artois-Flandres à Douvrin/Billy-Berclau (Pas-de-Calais)
-- La commune de Loos-en-Gohelle (Pas-de-Calais) - Le Parc de la Briquette[4] de la commune de Meurchin (Pas-de-Calais)
+- La commune de Loos-en-Gohelle (Pas-de-Calais) - Le Parc de la Briquette de la commune de Meurchin (Pas-de-Calais)
 Dans de grandes villes de France
 - Angers (Le parc Balzac)
 - Annecy
